--- a/statistics/样本数量统计.xlsx
+++ b/statistics/样本数量统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
